--- a/data/trans_orig/q27a-Edad-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D254E9FF-DA53-4563-90B4-C6E0F1ECE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95768C0A-B078-4FA3-AAB0-DCF688E46982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC7FC0C3-187E-45F6-BFA7-A5253DB51D1B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6CEA8BD-DE51-4B0A-8130-07A305A03A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="273">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -80,757 +80,778 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>1,98%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1245,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0762B8-10EE-4940-BDAA-B096889211BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A3F65-3FE3-4705-B330-D12348A1E4A1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1453,10 +1474,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,13 +1492,13 @@
         <v>11222</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -1486,13 +1507,13 @@
         <v>20446</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -1501,13 +1522,13 @@
         <v>31668</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1543,13 @@
         <v>70241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
@@ -1537,13 +1558,13 @@
         <v>48956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -1552,13 +1573,13 @@
         <v>119197</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,13 +1594,13 @@
         <v>147923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -1588,13 +1609,13 @@
         <v>140106</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>296</v>
@@ -1603,13 +1624,13 @@
         <v>288029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1645,13 @@
         <v>230288</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>226</v>
@@ -1639,13 +1660,13 @@
         <v>214398</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
@@ -1654,18 +1675,18 @@
         <v>444686</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1683,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1698,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1713,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1749,13 @@
         <v>4578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1743,13 +1764,13 @@
         <v>4866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1758,7 +1779,7 @@
         <v>9444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>63</v>
@@ -1800,7 +1821,7 @@
         <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -1809,13 +1830,13 @@
         <v>14853</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1851,13 @@
         <v>48546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1845,13 +1866,13 @@
         <v>33728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -1860,13 +1881,13 @@
         <v>82274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1902,13 @@
         <v>171019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -1896,13 +1917,13 @@
         <v>199135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -1911,13 +1932,13 @@
         <v>370154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1953,13 @@
         <v>234039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>231</v>
@@ -1947,13 +1968,13 @@
         <v>243643</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>455</v>
@@ -1962,18 +1983,18 @@
         <v>477682</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1991,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2006,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2021,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,13 +2057,13 @@
         <v>812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2051,13 +2072,13 @@
         <v>981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2066,13 +2087,13 @@
         <v>1793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2108,13 @@
         <v>2915</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2102,13 +2123,13 @@
         <v>8935</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2117,13 +2138,13 @@
         <v>11850</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2159,13 @@
         <v>14573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -2153,13 +2174,13 @@
         <v>45990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -2168,13 +2189,13 @@
         <v>60563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2210,13 @@
         <v>121536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -2204,13 +2225,13 @@
         <v>208283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -2219,13 +2240,13 @@
         <v>329819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2261,13 @@
         <v>139836</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>252</v>
@@ -2255,13 +2276,13 @@
         <v>264189</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -2270,18 +2291,18 @@
         <v>404025</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2299,7 +2320,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2308,13 +2329,13 @@
         <v>976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2323,13 +2344,13 @@
         <v>976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2365,13 @@
         <v>912</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2359,13 +2380,13 @@
         <v>6871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2374,13 +2395,13 @@
         <v>7783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2416,13 @@
         <v>4893</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -2410,13 +2431,13 @@
         <v>14722</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2425,13 +2446,13 @@
         <v>19615</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2467,13 @@
         <v>25715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2461,13 +2482,13 @@
         <v>34585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -2476,13 +2497,13 @@
         <v>60301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2518,13 @@
         <v>115340</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>147</v>
@@ -2512,13 +2533,13 @@
         <v>149287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>250</v>
@@ -2527,13 +2548,13 @@
         <v>264628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2569,13 @@
         <v>146860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>203</v>
@@ -2563,13 +2584,13 @@
         <v>206441</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>335</v>
@@ -2578,18 +2599,18 @@
         <v>353302</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2607,7 +2628,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2622,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2637,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2673,13 @@
         <v>833</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2673,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2682,13 +2703,13 @@
         <v>1812</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2724,13 @@
         <v>5873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2718,13 +2739,13 @@
         <v>3626</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2733,13 +2754,13 @@
         <v>9499</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2775,13 @@
         <v>16605</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -2769,13 +2790,13 @@
         <v>35478</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -2784,13 +2805,13 @@
         <v>52083</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2826,13 @@
         <v>54948</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>79</v>
@@ -2820,13 +2841,13 @@
         <v>81535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>135</v>
@@ -2835,13 +2856,13 @@
         <v>136483</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2877,13 @@
         <v>78259</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
         <v>117</v>
@@ -2871,13 +2892,13 @@
         <v>121617</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
         <v>197</v>
@@ -2886,18 +2907,18 @@
         <v>199876</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -2915,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2930,7 +2951,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2945,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2981,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -2996,7 +3017,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3032,13 @@
         <v>1454</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3026,13 +3047,13 @@
         <v>1167</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3041,13 +3062,13 @@
         <v>2621</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3083,13 @@
         <v>6451</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3077,13 +3098,13 @@
         <v>11443</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -3092,13 +3113,13 @@
         <v>17895</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3134,13 @@
         <v>34902</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -3128,13 +3149,13 @@
         <v>80947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M38" s="7">
         <v>115</v>
@@ -3143,13 +3164,13 @@
         <v>115849</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3185,13 @@
         <v>42807</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
         <v>92</v>
@@ -3179,13 +3200,13 @@
         <v>93558</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
         <v>135</v>
@@ -3194,13 +3215,13 @@
         <v>136365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3232,13 +3253,13 @@
         <v>2836</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3247,13 +3268,13 @@
         <v>2836</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3289,13 @@
         <v>8038</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H41" s="7">
         <v>18</v>
@@ -3283,13 +3304,13 @@
         <v>17683</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M41" s="7">
         <v>27</v>
@@ -3298,13 +3319,13 @@
         <v>25721</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3340,13 @@
         <v>36253</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
@@ -3334,13 +3355,13 @@
         <v>53852</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="M42" s="7">
         <v>89</v>
@@ -3349,13 +3370,13 @@
         <v>90105</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3391,13 @@
         <v>182131</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
         <v>207</v>
@@ -3385,13 +3406,13 @@
         <v>210181</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M43" s="7">
         <v>387</v>
@@ -3400,13 +3421,13 @@
         <v>392312</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3442,13 @@
         <v>645667</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>841</v>
@@ -3436,13 +3457,13 @@
         <v>859294</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>1469</v>
@@ -3451,13 +3472,13 @@
         <v>1504962</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3493,13 @@
         <v>872089</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H45" s="7">
         <v>1121</v>
@@ -3487,13 +3508,13 @@
         <v>1143847</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M45" s="7">
         <v>1975</v>
@@ -3502,18 +3523,18 @@
         <v>2015936</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Edad-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95768C0A-B078-4FA3-AAB0-DCF688E46982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6745F668-F898-459E-AB66-6B6401B32921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6CEA8BD-DE51-4B0A-8130-07A305A03A9B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94490046-71D4-4D78-9428-420A199B6ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="263">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -80,778 +80,748 @@
     <t>0,42%</t>
   </si>
   <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>19,46%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1266,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014A3F65-3FE3-4705-B330-D12348A1E4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7799EA2-5316-4570-A074-40AE31CB3DA9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1474,10 +1444,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,13 +1462,13 @@
         <v>11222</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -1507,13 +1477,13 @@
         <v>20446</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -1522,13 +1492,13 @@
         <v>31668</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1513,13 @@
         <v>70241</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
@@ -1558,13 +1528,13 @@
         <v>48956</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -1573,13 +1543,13 @@
         <v>119197</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1564,13 @@
         <v>147923</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -1609,13 +1579,13 @@
         <v>140106</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>296</v>
@@ -1624,13 +1594,13 @@
         <v>288029</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1645,13 +1615,13 @@
         <v>230288</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>226</v>
@@ -1660,13 +1630,13 @@
         <v>214398</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
@@ -1675,18 +1645,18 @@
         <v>444686</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1704,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1719,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1734,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1719,13 @@
         <v>4578</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1764,13 +1734,13 @@
         <v>4866</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1779,13 +1749,13 @@
         <v>9444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1770,13 @@
         <v>9897</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1815,13 +1785,13 @@
         <v>4957</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -1830,13 +1800,13 @@
         <v>14853</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1821,13 @@
         <v>48546</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1866,13 +1836,13 @@
         <v>33728</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -1881,13 +1851,13 @@
         <v>82274</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1872,13 @@
         <v>171019</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -1917,13 +1887,13 @@
         <v>199135</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -1932,13 +1902,13 @@
         <v>370154</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1923,13 @@
         <v>234039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>231</v>
@@ -1968,13 +1938,13 @@
         <v>243643</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>455</v>
@@ -1983,18 +1953,18 @@
         <v>477682</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -2012,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2027,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2042,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,13 +2027,13 @@
         <v>812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2072,13 +2042,13 @@
         <v>981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2087,13 +2057,13 @@
         <v>1793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2078,13 @@
         <v>2915</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2123,13 +2093,13 @@
         <v>8935</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2138,13 +2108,13 @@
         <v>11850</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2129,13 @@
         <v>14573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -2174,13 +2144,13 @@
         <v>45990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -2189,13 +2159,13 @@
         <v>60563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2180,13 @@
         <v>121536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -2225,13 +2195,13 @@
         <v>208283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -2240,13 +2210,13 @@
         <v>329819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2231,13 @@
         <v>139836</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>252</v>
@@ -2276,13 +2246,13 @@
         <v>264189</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -2291,18 +2261,18 @@
         <v>404025</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2320,7 +2290,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2329,13 +2299,13 @@
         <v>976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2344,13 +2314,13 @@
         <v>976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2335,13 @@
         <v>912</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2380,13 +2350,13 @@
         <v>6871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2395,13 +2365,13 @@
         <v>7783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2386,13 @@
         <v>4893</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -2431,13 +2401,13 @@
         <v>14722</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2446,13 +2416,13 @@
         <v>19615</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2437,13 @@
         <v>25715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2482,13 +2452,13 @@
         <v>34585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -2497,13 +2467,13 @@
         <v>60301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2488,13 @@
         <v>115340</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>147</v>
@@ -2533,13 +2503,13 @@
         <v>149287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>250</v>
@@ -2548,13 +2518,13 @@
         <v>264628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2539,13 @@
         <v>146860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>203</v>
@@ -2584,13 +2554,13 @@
         <v>206441</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>335</v>
@@ -2599,18 +2569,18 @@
         <v>353302</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2628,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2643,7 +2613,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2658,7 +2628,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2643,13 @@
         <v>833</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2688,13 +2658,13 @@
         <v>978</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2703,13 +2673,13 @@
         <v>1812</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2694,13 @@
         <v>5873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2739,13 +2709,13 @@
         <v>3626</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2754,13 +2724,13 @@
         <v>9499</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2745,13 @@
         <v>16605</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -2790,13 +2760,13 @@
         <v>35478</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -2805,13 +2775,13 @@
         <v>52083</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2796,13 @@
         <v>54948</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="H32" s="7">
         <v>79</v>
@@ -2841,13 +2811,13 @@
         <v>81535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>135</v>
@@ -2856,13 +2826,13 @@
         <v>136483</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2847,13 @@
         <v>78259</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>117</v>
@@ -2892,13 +2862,13 @@
         <v>121617</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>197</v>
@@ -2907,18 +2877,18 @@
         <v>199876</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -2936,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2951,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2966,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,7 +2957,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3002,7 +2972,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3017,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3002,13 @@
         <v>1454</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3047,13 +3017,13 @@
         <v>1167</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3062,13 +3032,13 @@
         <v>2621</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3053,13 @@
         <v>6451</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3098,13 +3068,13 @@
         <v>11443</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -3113,13 +3083,13 @@
         <v>17895</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3104,13 @@
         <v>34902</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -3149,13 +3119,13 @@
         <v>80947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M38" s="7">
         <v>115</v>
@@ -3164,13 +3134,13 @@
         <v>115849</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3155,13 @@
         <v>42807</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H39" s="7">
         <v>92</v>
@@ -3200,13 +3170,13 @@
         <v>93558</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M39" s="7">
         <v>135</v>
@@ -3215,13 +3185,13 @@
         <v>136365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3253,13 +3223,13 @@
         <v>2836</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3268,10 +3238,10 @@
         <v>2836</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>13</v>
@@ -3289,13 +3259,13 @@
         <v>8038</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="H41" s="7">
         <v>18</v>
@@ -3304,13 +3274,13 @@
         <v>17683</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M41" s="7">
         <v>27</v>
@@ -3319,13 +3289,13 @@
         <v>25721</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3310,13 @@
         <v>36253</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
@@ -3355,13 +3325,13 @@
         <v>53852</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M42" s="7">
         <v>89</v>
@@ -3370,13 +3340,13 @@
         <v>90105</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3361,13 @@
         <v>182131</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H43" s="7">
         <v>207</v>
@@ -3406,13 +3376,13 @@
         <v>210181</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M43" s="7">
         <v>387</v>
@@ -3421,13 +3391,13 @@
         <v>392312</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3412,13 @@
         <v>645667</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7">
         <v>841</v>
@@ -3457,13 +3427,13 @@
         <v>859294</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M44" s="7">
         <v>1469</v>
@@ -3472,13 +3442,13 @@
         <v>1504962</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3463,13 @@
         <v>872089</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H45" s="7">
         <v>1121</v>
@@ -3508,13 +3478,13 @@
         <v>1143847</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M45" s="7">
         <v>1975</v>
@@ -3523,18 +3493,18 @@
         <v>2015936</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Edad-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6745F668-F898-459E-AB66-6B6401B32921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38943E52-B717-4369-B77F-3D0EF30DDCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94490046-71D4-4D78-9428-420A199B6ABA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C48FD631-85CF-4406-A821-006E4E343024}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="266">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -80,748 +80,757 @@
     <t>0,42%</t>
   </si>
   <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7799EA2-5316-4570-A074-40AE31CB3DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A69B9B-F6BE-4E19-AB7F-DA5D2DAA4283}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1447,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,13 +1471,13 @@
         <v>11222</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -1477,13 +1486,13 @@
         <v>20446</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -1492,13 +1501,13 @@
         <v>31668</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,13 +1522,13 @@
         <v>70241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>53</v>
@@ -1528,13 +1537,13 @@
         <v>48956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -1543,13 +1552,13 @@
         <v>119197</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,13 +1573,13 @@
         <v>147923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -1579,13 +1588,13 @@
         <v>140106</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>296</v>
@@ -1594,13 +1603,13 @@
         <v>288029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,13 +1624,13 @@
         <v>230288</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>226</v>
@@ -1630,13 +1639,13 @@
         <v>214398</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
@@ -1645,18 +1654,18 @@
         <v>444686</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1674,7 +1683,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1689,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1704,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,13 +1728,13 @@
         <v>4578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1734,13 +1743,13 @@
         <v>4866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1749,13 +1758,13 @@
         <v>9444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1779,13 @@
         <v>9897</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1785,13 +1794,13 @@
         <v>4957</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -1800,13 +1809,13 @@
         <v>14853</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,13 +1830,13 @@
         <v>48546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -1836,13 +1845,13 @@
         <v>33728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -1851,10 +1860,10 @@
         <v>82274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>80</v>
@@ -1923,13 +1932,13 @@
         <v>234039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>231</v>
@@ -1938,13 +1947,13 @@
         <v>243643</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>455</v>
@@ -1953,13 +1962,13 @@
         <v>477682</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2036,13 @@
         <v>812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2042,13 +2051,13 @@
         <v>981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2057,13 +2066,13 @@
         <v>1793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,13 +2087,13 @@
         <v>2915</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2093,13 +2102,13 @@
         <v>8935</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2108,13 +2117,13 @@
         <v>11850</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2138,13 @@
         <v>14573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -2144,13 +2153,13 @@
         <v>45990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -2159,13 +2168,13 @@
         <v>60563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2189,13 @@
         <v>121536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -2195,13 +2204,13 @@
         <v>208283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>322</v>
@@ -2210,13 +2219,13 @@
         <v>329819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2240,13 @@
         <v>139836</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>252</v>
@@ -2246,13 +2255,13 @@
         <v>264189</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -2261,18 +2270,18 @@
         <v>404025</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2290,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2299,13 +2308,13 @@
         <v>976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2314,13 +2323,13 @@
         <v>976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2344,13 @@
         <v>912</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2350,13 +2359,13 @@
         <v>6871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -2365,13 +2374,13 @@
         <v>7783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2395,13 @@
         <v>4893</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -2401,13 +2410,13 @@
         <v>14722</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -2416,13 +2425,13 @@
         <v>19615</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2446,13 @@
         <v>25715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2452,13 +2461,13 @@
         <v>34585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -2467,13 +2476,13 @@
         <v>60301</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2497,13 @@
         <v>115340</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>147</v>
@@ -2503,13 +2512,13 @@
         <v>149287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>250</v>
@@ -2518,13 +2527,13 @@
         <v>264628</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2548,13 @@
         <v>146860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>203</v>
@@ -2554,13 +2563,13 @@
         <v>206441</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>335</v>
@@ -2569,18 +2578,18 @@
         <v>353302</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2598,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2613,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2628,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,7 +2652,7 @@
         <v>833</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
@@ -2658,13 +2667,13 @@
         <v>978</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2673,13 +2682,13 @@
         <v>1812</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2703,13 @@
         <v>5873</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2709,13 +2718,13 @@
         <v>3626</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2724,10 +2733,10 @@
         <v>9499</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>181</v>
@@ -2802,7 +2811,7 @@
         <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>79</v>
@@ -2811,13 +2820,13 @@
         <v>81535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>135</v>
@@ -2826,13 +2835,13 @@
         <v>136483</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2856,13 @@
         <v>78259</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <v>117</v>
@@ -2862,13 +2871,13 @@
         <v>121617</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7">
         <v>197</v>
@@ -2877,18 +2886,18 @@
         <v>199876</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -2906,7 +2915,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2921,7 +2930,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2936,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2972,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -2987,7 +2996,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3011,13 @@
         <v>1454</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3017,13 +3026,13 @@
         <v>1167</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3032,13 +3041,13 @@
         <v>2621</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3062,13 @@
         <v>6451</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -3068,13 +3077,13 @@
         <v>11443</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -3083,13 +3092,13 @@
         <v>17895</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3113,13 @@
         <v>34902</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -3119,13 +3128,13 @@
         <v>80947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M38" s="7">
         <v>115</v>
@@ -3134,13 +3143,13 @@
         <v>115849</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3164,13 @@
         <v>42807</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" s="7">
         <v>92</v>
@@ -3170,13 +3179,13 @@
         <v>93558</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" s="7">
         <v>135</v>
@@ -3185,13 +3194,13 @@
         <v>136365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,7 +3223,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3223,13 +3232,13 @@
         <v>2836</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -3238,13 +3247,13 @@
         <v>2836</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3268,13 @@
         <v>8038</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="H41" s="7">
         <v>18</v>
@@ -3274,13 +3283,13 @@
         <v>17683</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M41" s="7">
         <v>27</v>
@@ -3289,13 +3298,13 @@
         <v>25721</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3319,13 @@
         <v>36253</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H42" s="7">
         <v>52</v>
@@ -3325,13 +3334,13 @@
         <v>53852</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="M42" s="7">
         <v>89</v>
@@ -3340,13 +3349,13 @@
         <v>90105</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3370,13 @@
         <v>182131</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H43" s="7">
         <v>207</v>
@@ -3376,13 +3385,13 @@
         <v>210181</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
         <v>387</v>
@@ -3391,13 +3400,13 @@
         <v>392312</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3421,13 @@
         <v>645667</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H44" s="7">
         <v>841</v>
@@ -3427,13 +3436,13 @@
         <v>859294</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="M44" s="7">
         <v>1469</v>
@@ -3442,13 +3451,13 @@
         <v>1504962</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3472,13 @@
         <v>872089</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" s="7">
         <v>1121</v>
@@ -3478,13 +3487,13 @@
         <v>1143847</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M45" s="7">
         <v>1975</v>
@@ -3493,18 +3502,18 @@
         <v>2015936</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/q27a-Edad-trans_orig.xlsx
+++ b/data/trans_orig/q27a-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38943E52-B717-4369-B77F-3D0EF30DDCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B01C89D-A1E2-4241-801E-EE39AC87DCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C48FD631-85CF-4406-A821-006E4E343024}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A53131F7-807F-4C8E-9F93-4A2B167DFB38}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="287">
   <si>
     <t>Población según el número de personas que fuman habitualmente en su casa en 2007 (Tasa respuesta: 30,33%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -194,7 +194,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -308,7 +308,7 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -416,7 +416,7 @@
     <t>85,44%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,44%</t>
@@ -533,7 +533,7 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -638,85 +638,151 @@
     <t>74,65%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -765,9 +831,6 @@
   </si>
   <si>
     <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
   </si>
   <si>
     <t>5,47%</t>
@@ -1245,8 +1308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A69B9B-F6BE-4E19-AB7F-DA5D2DAA4283}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7268EDF7-7AE4-4087-AA47-368E0FE89094}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3005,49 +3068,49 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="M36" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>2621</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,49 +3119,49 @@
         <v>2</v>
       </c>
       <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3953</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="7">
         <v>7</v>
       </c>
-      <c r="D37" s="7">
-        <v>6451</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="I37" s="7">
+        <v>6534</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" s="7">
+        <v>11</v>
+      </c>
+      <c r="N37" s="7">
+        <v>10487</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="H37" s="7">
-        <v>11</v>
-      </c>
-      <c r="I37" s="7">
-        <v>11443</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M37" s="7">
-        <v>18</v>
-      </c>
-      <c r="N37" s="7">
-        <v>17895</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,49 +3170,49 @@
         <v>1</v>
       </c>
       <c r="C38" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D38" s="7">
-        <v>34902</v>
+        <v>21253</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="7">
+        <v>51</v>
+      </c>
+      <c r="I38" s="7">
+        <v>46958</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="7">
+        <v>74</v>
+      </c>
+      <c r="N38" s="7">
+        <v>68211</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H38" s="7">
-        <v>80</v>
-      </c>
-      <c r="I38" s="7">
-        <v>80947</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M38" s="7">
-        <v>115</v>
-      </c>
-      <c r="N38" s="7">
-        <v>115849</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,10 +3221,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D39" s="7">
-        <v>42807</v>
+        <v>25206</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>51</v>
@@ -3173,10 +3236,10 @@
         <v>51</v>
       </c>
       <c r="H39" s="7">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I39" s="7">
-        <v>93558</v>
+        <v>53492</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>51</v>
@@ -3188,10 +3251,10 @@
         <v>51</v>
       </c>
       <c r="M39" s="7">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="N39" s="7">
-        <v>136365</v>
+        <v>78698</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>51</v>
@@ -3205,7 +3268,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -3223,37 +3286,37 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H40" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>2836</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M40" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>2836</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,49 +3325,49 @@
         <v>4</v>
       </c>
       <c r="C41" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>8038</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H41" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>17683</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M41" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>25721</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>239</v>
+        <v>10</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3376,49 @@
         <v>3</v>
       </c>
       <c r="C42" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>36253</v>
+        <v>1454</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H42" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>53852</v>
+        <v>1167</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="M42" s="7">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="N42" s="7">
-        <v>90105</v>
+        <v>2621</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,49 +3427,49 @@
         <v>2</v>
       </c>
       <c r="C43" s="7">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D43" s="7">
-        <v>182131</v>
+        <v>2498</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H43" s="7">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="I43" s="7">
-        <v>210181</v>
+        <v>4910</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="M43" s="7">
-        <v>387</v>
+        <v>7</v>
       </c>
       <c r="N43" s="7">
-        <v>392312</v>
+        <v>7408</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,49 +3478,49 @@
         <v>1</v>
       </c>
       <c r="C44" s="7">
-        <v>628</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7">
-        <v>645667</v>
+        <v>13648</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H44" s="7">
-        <v>841</v>
+        <v>29</v>
       </c>
       <c r="I44" s="7">
-        <v>859294</v>
+        <v>33989</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="M44" s="7">
-        <v>1469</v>
+        <v>41</v>
       </c>
       <c r="N44" s="7">
-        <v>1504962</v>
+        <v>47637</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,63 +3529,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7">
+        <v>17600</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="7">
+        <v>34</v>
+      </c>
+      <c r="I45" s="7">
+        <v>40066</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" s="7">
+        <v>50</v>
+      </c>
+      <c r="N45" s="7">
+        <v>57666</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="7">
+        <v>3</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2836</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M46" s="7">
+        <v>3</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2836</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7">
+        <v>8038</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H47" s="7">
+        <v>18</v>
+      </c>
+      <c r="I47" s="7">
+        <v>17683</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M47" s="7">
+        <v>27</v>
+      </c>
+      <c r="N47" s="7">
+        <v>25721</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>37</v>
+      </c>
+      <c r="D48" s="7">
+        <v>36253</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H48" s="7">
+        <v>52</v>
+      </c>
+      <c r="I48" s="7">
+        <v>53852</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M48" s="7">
+        <v>89</v>
+      </c>
+      <c r="N48" s="7">
+        <v>90105</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7">
+        <v>180</v>
+      </c>
+      <c r="D49" s="7">
+        <v>182131</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H49" s="7">
+        <v>207</v>
+      </c>
+      <c r="I49" s="7">
+        <v>210181</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M49" s="7">
+        <v>387</v>
+      </c>
+      <c r="N49" s="7">
+        <v>392312</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="7">
+        <v>628</v>
+      </c>
+      <c r="D50" s="7">
+        <v>645667</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" s="7">
+        <v>841</v>
+      </c>
+      <c r="I50" s="7">
+        <v>859294</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1469</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1504962</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>854</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>872089</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="7">
         <v>1121</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1143847</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="7">
         <v>1975</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2015936</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>265</v>
+      <c r="O51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
